--- a/old_database/crypto/fastqFiles/fastq_2905.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2905.xlsx
@@ -37,7 +37,7 @@
     <t>05.25.28</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2905</t>
   </si>
   <si>
     <t>sequence/run_2905_samples/2905_Brent_12_GTAC_36_TGGCATA_S34_R1_001.fastq.gz</t>
